--- a/IOI2020 Training 完成情况.xlsx
+++ b/IOI2020 Training 完成情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D8F344-4924-4FA1-A1A4-F769A0C0035E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13139A20-735A-4B29-807A-7249D7C58D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1172,8 +1172,8 @@
         <v>158</v>
       </c>
       <c r="C2" s="6">
-        <f>SUM(B1:B50)</f>
-        <v>4</v>
+        <f>SUM(B1:B150)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1362,6 +1362,9 @@
       <c r="A38" s="5" t="s">
         <v>123</v>
       </c>
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
@@ -1891,7 +1894,9 @@
       <c r="A116" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B116" s="16"/>
+      <c r="B116" s="16">
+        <v>1</v>
+      </c>
       <c r="D116" s="10"/>
       <c r="F116" s="9"/>
     </row>

--- a/IOI2020 Training 完成情况.xlsx
+++ b/IOI2020 Training 完成情况.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13139A20-735A-4B29-807A-7249D7C58D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75500F06-A082-417C-88A6-C32DD03B8DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1163,6 +1163,9 @@
       <c r="A1" s="6" t="s">
         <v>159</v>
       </c>
+      <c r="B1" s="11">
+        <v>1</v>
+      </c>
       <c r="C1" s="6" t="s">
         <v>160</v>
       </c>
@@ -1171,15 +1174,21 @@
       <c r="A2" s="6" t="s">
         <v>158</v>
       </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
       <c r="C2" s="6">
         <f>SUM(B1:B150)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>157</v>
       </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
@@ -1219,6 +1228,9 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>149</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">

--- a/IOI2020 Training 完成情况.xlsx
+++ b/IOI2020 Training 完成情况.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75500F06-A082-417C-88A6-C32DD03B8DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A656159-ED61-481B-AD5A-A1B082639AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2505" yWindow="2505" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(B1:B150)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1193,6 +1193,9 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>156</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
